--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9B6DB-4D83-4439-A50E-02EE9341A7A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3947D31C-09A1-4036-9ABE-4C6852D6E141}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>ContrasenaSalesforce</t>
+  </si>
+  <si>
+    <t>UrlRfc</t>
+  </si>
+  <si>
+    <t>https://www.consultarfc.mx/VALIDA/interiores/RFC.php</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -673,7 +679,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1664,9 +1677,10 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{FCDF3047-367E-4A94-9029-D7A1568C9A48}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{279818D5-3524-41F4-A404-3273D86CB9B3}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{BFCE366A-6EF2-400C-8A63-FC8B0D80AB96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3947D31C-09A1-4036-9ABE-4C6852D6E141}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED9ACF-32CB-418B-952A-9D9F8A38FE0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>ContrasenaSalesforce</t>
-  </si>
-  <si>
-    <t>UrlRfc</t>
-  </si>
-  <si>
-    <t>https://www.consultarfc.mx/VALIDA/interiores/RFC.php</t>
   </si>
 </sst>
 </file>
@@ -570,7 +564,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A11" sqref="A11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -680,12 +674,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1677,10 +1666,9 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{FCDF3047-367E-4A94-9029-D7A1568C9A48}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{279818D5-3524-41F4-A404-3273D86CB9B3}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{BFCE366A-6EF2-400C-8A63-FC8B0D80AB96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED9ACF-32CB-418B-952A-9D9F8A38FE0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82545510-ED9B-4784-ACF0-09784E3B1702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82545510-ED9B-4784-ACF0-09784E3B1702}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306385A0-1689-406A-A577-F9015043DB9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306385A0-1689-406A-A577-F9015043DB9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1A53A-4EDB-4E34-8B0A-B2824C9B09ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -196,13 +196,19 @@
   </si>
   <si>
     <t>ContrasenaSalesforce</t>
+  </si>
+  <si>
+    <t>BdBancos.xlsx</t>
+  </si>
+  <si>
+    <t>PathBDBancos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -219,6 +225,20 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,10 +262,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -564,7 +586,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,29 +696,36 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1A53A-4EDB-4E34-8B0A-B2824C9B09ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB423077-40A3-439A-B5F9-083B88A3DAF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -202,13 +202,19 @@
   </si>
   <si>
     <t>PathBDBancos</t>
+  </si>
+  <si>
+    <t>PathDocumentosCliente</t>
+  </si>
+  <si>
+    <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -240,6 +246,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,12 +274,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -586,7 +599,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -703,7 +716,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -711,7 +731,9 @@
     <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
     <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB423077-40A3-439A-B5F9-083B88A3DAF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15C5B39-B69A-4E47-8987-92A8590243DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
+  </si>
+  <si>
+    <t>PathLog</t>
+  </si>
+  <si>
+    <t>Data\LogClientes.xlsx</t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -724,7 +730,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15C5B39-B69A-4E47-8987-92A8590243DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848C34B-6DF1-4479-BBC6-9A7853DCB3BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848C34B-6DF1-4479-BBC6-9A7853DCB3BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -214,12 +213,18 @@
   </si>
   <si>
     <t>Data\LogClientes.xlsx</t>
+  </si>
+  <si>
+    <t>PathContratosNoActualizados</t>
+  </si>
+  <si>
+    <t>Data\CONTRATOS NO ACTUALIZADOS.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -738,7 +743,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1728,8 +1740,8 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{FCDF3047-367E-4A94-9029-D7A1568C9A48}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{279818D5-3524-41F4-A404-3273D86CB9B3}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1737,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2950,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -206,9 +206,6 @@
     <t>PathDocumentosCliente</t>
   </si>
   <si>
-    <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
-  </si>
-  <si>
     <t>PathLog</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Data\CONTRATOS NO ACTUALIZADOS.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -732,23 +732,23 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48340326-A2B4-4D14-93DD-5B7090C10FB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -224,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,11 +607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1740,8 +1741,8 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1749,7 +1750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2962,7 +2963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48340326-A2B4-4D14-93DD-5B7090C10FB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -225,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1741,8 +1740,8 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1750,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2963,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E85BB0-67DA-4E84-B5E3-3C03B5735167}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="4740" yWindow="1740" windowWidth="16200" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -197,9 +198,6 @@
     <t>ContrasenaSalesforce</t>
   </si>
   <si>
-    <t>BdBancos.xlsx</t>
-  </si>
-  <si>
     <t>PathBDBancos</t>
   </si>
   <si>
@@ -219,12 +217,15 @@
   </si>
   <si>
     <t>C:\Users\Beecker\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
+  </si>
+  <si>
+    <t>Data\Bancos_Aceptados.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,11 +607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -721,37 +722,39 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1740,8 +1743,8 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1749,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2962,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E85BB0-67DA-4E84-B5E3-3C03B5735167}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3308376-46B9-4D91-A635-62D1FB8F571F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1740" windowWidth="16200" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3308376-46B9-4D91-A635-62D1FB8F571F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F06B99E-4F0C-4119-95DA-9706E627B400}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,10 +216,10 @@
     <t>Data\CONTRATOS NO ACTUALIZADOS.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
-  </si>
-  <si>
     <t>Data\Bancos_Aceptados.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F06B99E-4F0C-4119-95DA-9706E627B400}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10459F-824E-4740-9D73-942F5B4DB1F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10459F-824E-4740-9D73-942F5B4DB1F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -219,13 +218,13 @@
     <t>Data\Bancos_Aceptados.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
+    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1743,8 +1742,8 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1752,7 +1751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2965,7 +2964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D21D8-5247-4082-A3FD-E3147B164EE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -218,13 +219,13 @@
     <t>Data\Bancos_Aceptados.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosTmpCliente\</t>
+    <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,11 +607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1742,8 +1743,8 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1751,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2964,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D21D8-5247-4082-A3FD-E3147B164EE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -219,13 +218,13 @@
     <t>Data\Bancos_Aceptados.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
+    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1743,8 +1742,8 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1752,7 +1751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2965,7 +2964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -218,7 +218,7 @@
     <t>Data\Bancos_Aceptados.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosTmpCliente\</t>
+    <t>C:\Users\Beecker\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -218,7 +218,7 @@
     <t>Data\Bancos_Aceptados.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
+    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -218,7 +218,7 @@
     <t>Data\Bancos_Aceptados.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosTmpCliente\</t>
+    <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -218,7 +218,7 @@
     <t>Data\Bancos_Aceptados.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\88891\Documents\UiPath\Archivaldo\Data\ArchivosTmpCliente\</t>
+    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosTmpCliente\</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +219,180 @@
   </si>
   <si>
     <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosTmpCliente\</t>
+  </si>
+  <si>
+    <t>MensajeVinculoPatrimonial</t>
+  </si>
+  <si>
+    <t>MensajeCuentaBancaria</t>
+  </si>
+  <si>
+    <t>MensajeDatosPersonales</t>
+  </si>
+  <si>
+    <t>MensajeDatosPersonalesCurp</t>
+  </si>
+  <si>
+    <t>MensajeDatosPersonalesRFC</t>
+  </si>
+  <si>
+    <t>MensajeDomicilioFiscal</t>
+  </si>
+  <si>
+    <t>MensajeDomicilioResidencial</t>
+  </si>
+  <si>
+    <t>MensajeFactaTIN</t>
+  </si>
+  <si>
+    <t>MensajeFacta</t>
+  </si>
+  <si>
+    <t>MensajeDatosBeneficiario</t>
+  </si>
+  <si>
+    <t>MensajeActividadLaboral</t>
+  </si>
+  <si>
+    <t>Asegurece de proporcionar los datos solicitado del beneficiario, esto a pesar de que usted sea el unico beneficiario</t>
+  </si>
+  <si>
+    <t>MensajeVinculoPatrimonialRFC</t>
+  </si>
+  <si>
+    <t>En caso de tener vinculo patrimonial llene todos los campos, en caso contrario deje todos los campos vacios.</t>
+  </si>
+  <si>
+    <t>Proporcione todos los datos de la cuenta bancaria.</t>
+  </si>
+  <si>
+    <t>Proporcione su CURP de manera correcta.</t>
+  </si>
+  <si>
+    <t>Proporcione el RFC de la empresa de la cual es socio, el cual tiene que ser valido y estar registrado ante el SAT.</t>
+  </si>
+  <si>
+    <t>Proporcione su RFC de manera correcta.</t>
+  </si>
+  <si>
+    <t>Asegurece de proporcionar todos sus datos personales de manera correcta.</t>
+  </si>
+  <si>
+    <t>Proporcione su direccion fiscal completa.</t>
+  </si>
+  <si>
+    <t>Proporcione su direccion residencial completa.</t>
+  </si>
+  <si>
+    <t>.Proporcione el identificador fiscal que utiliza en su pais</t>
+  </si>
+  <si>
+    <t>Asegurece de responder a todas las preguntas de la seccion FACTA.</t>
+  </si>
+  <si>
+    <t>Asegurece de llenar todos los campos de la actividad laboral según corresponda.</t>
+  </si>
+  <si>
+    <t>MensajeNumeroContrato</t>
+  </si>
+  <si>
+    <t>Asegure de proporcionar su numero de contrato con GBM.</t>
+  </si>
+  <si>
+    <t>MensajeDirFiscal</t>
+  </si>
+  <si>
+    <t>MensajeDirFiscalCambioDireccion</t>
+  </si>
+  <si>
+    <t>MensajeDirFiscalParentezco</t>
+  </si>
+  <si>
+    <t>MensajeDirResidencial</t>
+  </si>
+  <si>
+    <t>MensajeDirResidencialCambioDireccion</t>
+  </si>
+  <si>
+    <t>MensajeDirResidencialParentezco</t>
+  </si>
+  <si>
+    <t>MensajeCartaAcreditacionDomicilioResidencial</t>
+  </si>
+  <si>
+    <t>MensajeCartaAcreditacionDomicilioFiscal</t>
+  </si>
+  <si>
+    <t>Proporcione su comprobante de domicilio fiscal vigente</t>
+  </si>
+  <si>
+    <t>Envie su comprobante residencial vigente</t>
+  </si>
+  <si>
+    <t>La direccion que viene en su comprobante de domicilio residencial no coincide con la registrada en GBM, por favor envie un comprobante donde coincidan su direccion residencial y nombre , o en su defecto envie su carta de acreditamiento de domicilio en formato pdf, misma que adjunto en este correo.</t>
+  </si>
+  <si>
+    <t>La direccion que viene en su comprobante de domicilio fiscal no coincide con la registrada en GBM, por favor envie un comprobante donde coincidan su direccion fiscal y nombre , o en su defecto envie su carta de acreditamiento de domicilio en formato pdf, misma que adjunto en este correo.</t>
+  </si>
+  <si>
+    <t>El nombre en el comprobante de domicilio fiscal que proporciono no esta a su nombre, por favor envie un comprobante donde coincidan su direccion fiscal y nombre , o en su defecto envie su carta de acreditamiento de domicilio en formato pdf, misma que adjunto en este correo.</t>
+  </si>
+  <si>
+    <t>El nombre en el comprobante de domicilio residencial que proporciono no esta a su nombre, por favor envie un comprobante donde coincidan su direccion residencial y nombre , o en su defecto envie su carta de acreditamiento de domicilio en formato pdf, misma que adjunto en este correo.</t>
+  </si>
+  <si>
+    <t>Llene completamente su carta de acreditacion de domicilio residencial</t>
+  </si>
+  <si>
+    <t>Llene completamente su carta de acreditacion de domicilio fiscal</t>
+  </si>
+  <si>
+    <t>MensajeIdentificacion</t>
+  </si>
+  <si>
+    <t>Proporcione una identificacion vigente escaneada y en formato pdf.</t>
+  </si>
+  <si>
+    <t>MensajeIdentificacionIlegible</t>
+  </si>
+  <si>
+    <t>La identificacion que proporciono es ilegible por favor escanee su identificacion y enviela de formato pdf</t>
+  </si>
+  <si>
+    <t>MensajeCedulaInvalida</t>
+  </si>
+  <si>
+    <t>La cedula que nos proporciono no se encuentra en el registro nacional de cedulas profesionales, por favor proporcione otra identificacion vigente.</t>
+  </si>
+  <si>
+    <t>MensajeINENoVigente</t>
+  </si>
+  <si>
+    <t>la identificacion que nos proporciono no esta vigente</t>
+  </si>
+  <si>
+    <t>MensajeBancoEstadoCuenta</t>
+  </si>
+  <si>
+    <t>El banco de su estado de cuenta no esta dentro de la base de datos de GBM, por favor proporciene un estado de cuenta valido.</t>
+  </si>
+  <si>
+    <t>MensajeNombreEstadoCuenta</t>
+  </si>
+  <si>
+    <t>El Estado de cuenta que proporciono no le pertence, por favor proporcione un estado de cuenta a su nombre por favor</t>
+  </si>
+  <si>
+    <t>MensajeCuentaClabeEstadoCuenta</t>
+  </si>
+  <si>
+    <t>La cuenta clabe en el estado de cuenta que proporciono no coincide con la cuenta clabe que proporciono en GBM, por favor verifique</t>
+  </si>
+  <si>
+    <t>MensajeEstadoCuenta</t>
+  </si>
+  <si>
+    <t>Por favor envie su estado de cuenta vigente</t>
   </si>
 </sst>
 </file>
@@ -609,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1983,44 +2159,247 @@
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>Por favor envie su estado de cuenta vigente</t>
+  </si>
+  <si>
+    <t>PathAcreditacionDocumento</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosPdf\</t>
   </si>
 </sst>
 </file>
@@ -783,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -926,7 +932,12 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosPdf\</t>
+  </si>
+  <si>
+    <t>PathDocumentosEnviables</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosEnviados\</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -254,9 +254,6 @@
     <t>MensajeActividadLaboral</t>
   </si>
   <si>
-    <t>Asegurece de proporcionar los datos solicitado del beneficiario, esto a pesar de que usted sea el unico beneficiario</t>
-  </si>
-  <si>
     <t>MensajeVinculoPatrimonialRFC</t>
   </si>
   <si>
@@ -323,12 +320,6 @@
     <t>MensajeCartaAcreditacionDomicilioFiscal</t>
   </si>
   <si>
-    <t>Proporcione su comprobante de domicilio fiscal vigente</t>
-  </si>
-  <si>
-    <t>Envie su comprobante residencial vigente</t>
-  </si>
-  <si>
     <t>La direccion que viene en su comprobante de domicilio residencial no coincide con la registrada en GBM, por favor envie un comprobante donde coincidan su direccion residencial y nombre , o en su defecto envie su carta de acreditamiento de domicilio en formato pdf, misma que adjunto en este correo.</t>
   </si>
   <si>
@@ -341,12 +332,6 @@
     <t>El nombre en el comprobante de domicilio residencial que proporciono no esta a su nombre, por favor envie un comprobante donde coincidan su direccion residencial y nombre , o en su defecto envie su carta de acreditamiento de domicilio en formato pdf, misma que adjunto en este correo.</t>
   </si>
   <si>
-    <t>Llene completamente su carta de acreditacion de domicilio residencial</t>
-  </si>
-  <si>
-    <t>Llene completamente su carta de acreditacion de domicilio fiscal</t>
-  </si>
-  <si>
     <t>MensajeIdentificacion</t>
   </si>
   <si>
@@ -356,9 +341,6 @@
     <t>MensajeIdentificacionIlegible</t>
   </si>
   <si>
-    <t>La identificacion que proporciono es ilegible por favor escanee su identificacion y enviela de formato pdf</t>
-  </si>
-  <si>
     <t>MensajeCedulaInvalida</t>
   </si>
   <si>
@@ -368,9 +350,6 @@
     <t>MensajeINENoVigente</t>
   </si>
   <si>
-    <t>la identificacion que nos proporciono no esta vigente</t>
-  </si>
-  <si>
     <t>MensajeBancoEstadoCuenta</t>
   </si>
   <si>
@@ -380,21 +359,12 @@
     <t>MensajeNombreEstadoCuenta</t>
   </si>
   <si>
-    <t>El Estado de cuenta que proporciono no le pertence, por favor proporcione un estado de cuenta a su nombre por favor</t>
-  </si>
-  <si>
     <t>MensajeCuentaClabeEstadoCuenta</t>
   </si>
   <si>
-    <t>La cuenta clabe en el estado de cuenta que proporciono no coincide con la cuenta clabe que proporciono en GBM, por favor verifique</t>
-  </si>
-  <si>
     <t>MensajeEstadoCuenta</t>
   </si>
   <si>
-    <t>Por favor envie su estado de cuenta vigente</t>
-  </si>
-  <si>
     <t>PathAcreditacionDocumento</t>
   </si>
   <si>
@@ -405,6 +375,48 @@
   </si>
   <si>
     <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosEnviados\</t>
+  </si>
+  <si>
+    <t>Asegurece de llenar todos los campos de la seccion de Beneficiario, esto a pesar de que usted sea el beneficiario.</t>
+  </si>
+  <si>
+    <t>La identificacion que proporciono es ilegible por favor escanee su identificacion y enviela en formato pdf.</t>
+  </si>
+  <si>
+    <t>la identificacion que nos proporciono no esta vigente.</t>
+  </si>
+  <si>
+    <t>Por favor envie su estado de cuenta vigente.</t>
+  </si>
+  <si>
+    <t>La cuenta clabe en el estado de cuenta que proporciono no coincide con la cuenta clabe que proporciono en GBM, por favor verifique.</t>
+  </si>
+  <si>
+    <t>Llene completamente su carta de acreditacion de domicilio fiscal.</t>
+  </si>
+  <si>
+    <t>Llene completamente su carta de acreditacion de domicilio residencial.</t>
+  </si>
+  <si>
+    <t>Envie su comprobante residencial vigente.</t>
+  </si>
+  <si>
+    <t>Proporcione su comprobante de domicilio fiscal vigente.</t>
+  </si>
+  <si>
+    <t>MensajeProblemasSolicitud</t>
+  </si>
+  <si>
+    <t>El Estado de cuenta que proporciono no le pertence, por favor proporcione un estado de cuenta a su nombre por favor.</t>
+  </si>
+  <si>
+    <t>Tuvimos problemas validando su solicitud, por favor atienda las siguientes instrucciones:</t>
+  </si>
+  <si>
+    <t>MensajeProblemasDoctos</t>
+  </si>
+  <si>
+    <t>Tuvimos problemas validando los documentos que envio, a continuacion se enlistan:</t>
   </si>
 </sst>
 </file>
@@ -795,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -939,18 +951,18 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1952,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2188,15 +2200,15 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,7 +2216,7 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2212,7 +2224,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2220,7 +2232,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,7 +2240,7 @@
         <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2236,7 +2248,7 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2244,7 +2256,7 @@
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,7 +2264,7 @@
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,7 +2272,7 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2280,7 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,147 +2288,161 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -365,12 +365,6 @@
     <t>MensajeEstadoCuenta</t>
   </si>
   <si>
-    <t>PathAcreditacionDocumento</t>
-  </si>
-  <si>
-    <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosPdf\</t>
-  </si>
-  <si>
     <t>PathDocumentosEnviables</t>
   </si>
   <si>
@@ -410,13 +404,13 @@
     <t>El Estado de cuenta que proporciono no le pertence, por favor proporcione un estado de cuenta a su nombre por favor.</t>
   </si>
   <si>
-    <t>Tuvimos problemas validando su solicitud, por favor atienda las siguientes instrucciones:</t>
-  </si>
-  <si>
     <t>MensajeProblemasDoctos</t>
   </si>
   <si>
     <t>Tuvimos problemas validando los documentos que envio, a continuacion se enlistan:</t>
+  </si>
+  <si>
+    <t>Tuvimos problemas validando la solicitud que nos envio, a continuacion se enlistan los errores:</t>
   </si>
 </sst>
 </file>
@@ -807,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -957,14 +951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
-    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -2280,7 +2267,7 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2304,7 +2291,7 @@
         <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,7 +2315,7 @@
         <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2339,7 @@
         <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2360,7 +2347,7 @@
         <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,7 +2363,7 @@
         <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,7 +2379,7 @@
         <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2400,7 +2387,7 @@
         <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2403,7 @@
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,7 +2411,7 @@
         <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2432,15 +2419,15 @@
         <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -272,9 +272,6 @@
     <t>Proporcione su RFC de manera correcta.</t>
   </si>
   <si>
-    <t>Asegurece de proporcionar todos sus datos personales de manera correcta.</t>
-  </si>
-  <si>
     <t>Proporcione su direccion fiscal completa.</t>
   </si>
   <si>
@@ -284,12 +281,6 @@
     <t>.Proporcione el identificador fiscal que utiliza en su pais</t>
   </si>
   <si>
-    <t>Asegurece de responder a todas las preguntas de la seccion FACTA.</t>
-  </si>
-  <si>
-    <t>Asegurece de llenar todos los campos de la actividad laboral según corresponda.</t>
-  </si>
-  <si>
     <t>MensajeNumeroContrato</t>
   </si>
   <si>
@@ -371,9 +362,6 @@
     <t>C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\ArchivosEnviados\</t>
   </si>
   <si>
-    <t>Asegurece de llenar todos los campos de la seccion de Beneficiario, esto a pesar de que usted sea el beneficiario.</t>
-  </si>
-  <si>
     <t>La identificacion que proporciono es ilegible por favor escanee su identificacion y enviela en formato pdf.</t>
   </si>
   <si>
@@ -411,6 +399,18 @@
   </si>
   <si>
     <t>Tuvimos problemas validando la solicitud que nos envio, a continuacion se enlistan los errores:</t>
+  </si>
+  <si>
+    <t>Asegurese de proporcionar todos sus datos personales de manera correcta.</t>
+  </si>
+  <si>
+    <t>Asegurese de responder a todas las preguntas de la seccion FACTA.</t>
+  </si>
+  <si>
+    <t>Asegurese de llenar todos los campos de la seccion de Beneficiario, esto a pesar de que usted sea el beneficiario.</t>
+  </si>
+  <si>
+    <t>Asegurese de llenar todos los campos de la actividad laboral según corresponda.</t>
   </si>
 </sst>
 </file>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,10 +945,10 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2227,7 +2227,7 @@
         <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,7 +2235,7 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,7 +2251,7 @@
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,159 +2275,159 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
         <v>125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
@@ -110,27 +110,18 @@
     <t>LogMessage_GetTransactionData</t>
   </si>
   <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
     <t>Static part of logging message. Calling Get Transaction Data</t>
   </si>
   <si>
     <t>LogMessage_GetTransactionDataError</t>
   </si>
   <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
     <t>Static part of logging message. Error retrieving Transaction Data.</t>
   </si>
   <si>
     <t>LogMessage_Success</t>
   </si>
   <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
     <t>Static part of logging message. Processed Transaction succesful</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
@@ -176,27 +164,6 @@
     <t>https://gbm--gbmte.cs22.my.salesforce.com/?ec=302&amp;startURL=%2Fvisualforce%2Fsession%3Furl%3Dhttps%253A%252F%252Fgbm--gbmte.lightning.force.com%252Flightning</t>
   </si>
   <si>
-    <t>archivaldobot@gbm.com.mx</t>
-  </si>
-  <si>
-    <t>.*Arch1v0+20</t>
-  </si>
-  <si>
-    <t>UsuarioShell</t>
-  </si>
-  <si>
-    <t>UsuarioSalesforce</t>
-  </si>
-  <si>
-    <t>ContrasenaShell</t>
-  </si>
-  <si>
-    <t>GBM\88891</t>
-  </si>
-  <si>
-    <t>ContrasenaSalesforce</t>
-  </si>
-  <si>
     <t>PathBDBancos</t>
   </si>
   <si>
@@ -411,6 +378,30 @@
   </si>
   <si>
     <t>Asegurese de llenar todos los campos de la actividad laboral según corresponda.</t>
+  </si>
+  <si>
+    <t>Archivaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesando caso: </t>
+  </si>
+  <si>
+    <t>Caso terminado.</t>
+  </si>
+  <si>
+    <t>Error obteniendo casos de Saleforce.</t>
+  </si>
+  <si>
+    <t>RutaCredenciales</t>
+  </si>
+  <si>
+    <t>Data\Credentials.xlsx</t>
+  </si>
+  <si>
+    <t>RutaCredencialesDecifradas</t>
+  </si>
+  <si>
+    <t>Data\Credenciales.xlsx</t>
   </si>
 </sst>
 </file>
@@ -801,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -849,108 +840,94 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>64</v>
+      <c r="A11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>60</v>
+      <c r="A13" t="s">
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-    </row>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1940,10 +1917,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1951,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2129,54 +2105,54 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2184,250 +2160,250 @@
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
